--- a/LogBook/LB.xlsx
+++ b/LogBook/LB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUGASSSSS\Semester 7\Magang\LogBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB70B040-A1B4-4FA3-883B-E83774184EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A933D82-A487-4F5B-97FD-CC62F533E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A8DE59D-91B8-42D4-9674-DEBB0EA85A14}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>Hari</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Pengerjaan tugas awal (berbeda setiap divisi)</t>
   </si>
   <si>
-    <t>Pembuatan Figma</t>
-  </si>
-  <si>
     <t>Pembuatan ERD website tujuan</t>
   </si>
   <si>
@@ -97,6 +94,48 @@
   </si>
   <si>
     <t>UI/UX home, profil, dan main menu</t>
+  </si>
+  <si>
+    <t>Pengembangan Website Satu Data BNPP</t>
+  </si>
+  <si>
+    <t>Desain Bagian Katalog Website dengan Figma</t>
+  </si>
+  <si>
+    <t>1 Frame Bagian Website</t>
+  </si>
+  <si>
+    <t>Desain Bagian Dashboard Website dengan Figma</t>
+  </si>
+  <si>
+    <t>Desain Bagian Dataset Website dengan Figma</t>
+  </si>
+  <si>
+    <t>Desain Bagian Infografis Website dengan Figma</t>
+  </si>
+  <si>
+    <t>Pembuatan Desain dengan Figma</t>
+  </si>
+  <si>
+    <t>Pembuatan Desain dengan Figma dan Pengerjaan Frontend</t>
+  </si>
+  <si>
+    <t>UI/UX layanan, Peraturan, serta frontend dashboard, Home, dan Splashscreen</t>
+  </si>
+  <si>
+    <t>Pembuatan Frontend</t>
+  </si>
+  <si>
+    <t>Frontend Peraturan</t>
+  </si>
+  <si>
+    <t>Pembuatan Frontend dan Backend</t>
+  </si>
+  <si>
+    <t>Frontend Detail dan List Peraturan, serta API Login</t>
+  </si>
+  <si>
+    <t>Pembuatan Frontend Profil dan PDFViewer</t>
   </si>
 </sst>
 </file>
@@ -104,12 +143,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,13 +224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -194,6 +239,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014AFC12-A61E-417D-9BA3-5BF06199D188}">
   <dimension ref="B3:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,10 +676,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -638,10 +696,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -658,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -675,13 +733,13 @@
         <v>45559</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -695,16 +753,16 @@
         <v>45560</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -714,11 +772,17 @@
       <c r="D12" s="8">
         <v>45561</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -728,11 +792,17 @@
       <c r="D13" s="8">
         <v>45562</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -742,11 +812,17 @@
       <c r="D14" s="6">
         <v>45565</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -756,65 +832,95 @@
       <c r="D15" s="6">
         <v>45566</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="12">
         <v>45567</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="E16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="12">
         <v>45568</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="E17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="12">
         <v>45569</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="E18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="14">
         <v>45572</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
@@ -873,246 +979,367 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
         <v>32</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="15">
         <v>42</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
         <v>43</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
         <v>44</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="15">
         <v>45</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
         <v>46</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
         <v>47</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
         <v>48</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="15">
         <v>49</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="15">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>